--- a/Leetcode Practice.xlsx
+++ b/Leetcode Practice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F11E62-F618-4222-97B9-D786A857F996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92268BE3-0593-4BF0-A3A1-2D9920AED425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16337843-6C15-4D5D-9406-FEC4E18A09D7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="221">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -638,6 +638,57 @@
   </si>
   <si>
     <t>..\DSA_SCALAR\LEETCODE\Best Time to Buy and Sell Stock II.java</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-break/</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>On3)</t>
+  </si>
+  <si>
+    <t>..\DSA_SCALAR\LEETCODE\Word Break.java</t>
+  </si>
+  <si>
+    <t>..\DSA_SCALAR\LEETCODE\word break.png</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>..\DSA_SCALAR\LEETCODE\Binary Tree Inorder Traversal.java</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-binary-search-trees/</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Path Sum</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F161C553-B5FC-475B-8860-A8A6D915256F}">
   <dimension ref="A1:L1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2712,40 +2763,80 @@
       <c r="L63" s="10"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
+      <c r="A64" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
+      <c r="H64" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
+      <c r="J64" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="A65" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="H65" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="A66" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
@@ -2754,12 +2845,24 @@
       <c r="L66" s="10"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="A67" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -2768,12 +2871,24 @@
       <c r="L67" s="10"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="A68" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
@@ -2782,9 +2897,15 @@
       <c r="L68" s="10"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
+      <c r="A69" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>219</v>
+      </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -13213,9 +13334,18 @@
     <hyperlink ref="H62" r:id="rId106" xr:uid="{F63E6643-76B9-449F-9552-39E72659A67C}"/>
     <hyperlink ref="C63" r:id="rId107" xr:uid="{96777640-0B8A-4A60-B223-871F8047AC72}"/>
     <hyperlink ref="H63" r:id="rId108" xr:uid="{64813670-539D-4E19-B1A5-7B47D9DA45D4}"/>
+    <hyperlink ref="C64" r:id="rId109" xr:uid="{B9EA919D-6B2B-4F1C-A420-C201C8F08EFC}"/>
+    <hyperlink ref="H64" r:id="rId110" xr:uid="{ED39F9BE-780C-46BB-A5D2-E07BF72FD314}"/>
+    <hyperlink ref="J64" r:id="rId111" xr:uid="{9129E54B-51EE-458E-ADBF-358D193AD98C}"/>
+    <hyperlink ref="C65" r:id="rId112" xr:uid="{16279789-B5A2-423C-88FC-D92B320E238D}"/>
+    <hyperlink ref="H65" r:id="rId113" xr:uid="{2BD3EA20-B0BE-4967-923E-692DCE5A46C0}"/>
+    <hyperlink ref="C66" r:id="rId114" xr:uid="{0C4BEB25-7DC7-42F4-AEE9-8E164017C995}"/>
+    <hyperlink ref="C67" r:id="rId115" xr:uid="{17626EFB-B4E2-4B26-A165-73DEA237AA3B}"/>
+    <hyperlink ref="C68" r:id="rId116" xr:uid="{F1C02E84-822C-4C6F-BEB5-3F3768884155}"/>
+    <hyperlink ref="C69" r:id="rId117" xr:uid="{D9287C80-0C5B-479A-85B8-984ADD961EEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId109"/>
+  <pageSetup orientation="portrait" r:id="rId118"/>
 </worksheet>
 </file>
 

--- a/Leetcode Practice.xlsx
+++ b/Leetcode Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92268BE3-0593-4BF0-A3A1-2D9920AED425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDEB0D4-944A-4D93-9FD3-7DACA6A41FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16337843-6C15-4D5D-9406-FEC4E18A09D7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="222">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Path Sum</t>
+  </si>
+  <si>
+    <t>Path Sum 2</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1188,7 @@
   <dimension ref="A1:L1039"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2917,9 +2920,15 @@
       <c r="L69" s="10"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="A70" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>219</v>
+      </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -13343,9 +13352,10 @@
     <hyperlink ref="C67" r:id="rId115" xr:uid="{17626EFB-B4E2-4B26-A165-73DEA237AA3B}"/>
     <hyperlink ref="C68" r:id="rId116" xr:uid="{F1C02E84-822C-4C6F-BEB5-3F3768884155}"/>
     <hyperlink ref="C69" r:id="rId117" xr:uid="{D9287C80-0C5B-479A-85B8-984ADD961EEC}"/>
+    <hyperlink ref="C70" r:id="rId118" xr:uid="{67B6E90C-37DE-4D8D-A28E-22E56AA06DA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId118"/>
+  <pageSetup orientation="portrait" r:id="rId119"/>
 </worksheet>
 </file>
 
